--- a/Прект Anylogic/Data.xlsx
+++ b/Прект Anylogic/Data.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Маршрут1" sheetId="1" r:id="rId1"/>
+    <sheet name="Маршрут2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Пройденное расстояние, км</t>
   </si>
@@ -361,7 +362,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,22 +398,95 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>18.629341987647663</v>
+        <v>18.62261274543571</v>
       </c>
       <c r="B2" s="2">
-        <v>1.8629341987647663</v>
+        <v>1.8622612745435709</v>
       </c>
       <c r="C2" s="2">
-        <v>19.281368957215332</v>
+        <v>19.27440419152596</v>
       </c>
       <c r="D2" s="2">
-        <v>700</v>
+        <v>710.5</v>
       </c>
       <c r="E2" s="2">
-        <v>57.833071206888427</v>
+        <v>58.315221569836957</v>
       </c>
       <c r="F2" s="2">
-        <v>200</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="2"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>18.577079770486954</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.8577079770486953</v>
+      </c>
+      <c r="C2" s="2">
+        <v>19.227277562453995</v>
+      </c>
+      <c r="D2" s="2">
+        <v>633.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>52.589767726300487</v>
+      </c>
+      <c r="F2" s="2">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Прект Anylogic/Data.xlsx
+++ b/Прект Anylogic/Data.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,6 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,18 +363,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -397,32 +398,184 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>18.62261274543571</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.8622612745435709</v>
-      </c>
-      <c r="C2" s="2">
-        <v>19.27440419152596</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="2" t="n">
+        <v>18.6226127454281</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1.86226127454281</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>19.274404191518084</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>55.655221569835405</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>187.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="n">
+        <v>18.62261274543911</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1.8622612745439109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.274404191529477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55.00522156983481</v>
+      </c>
+      <c r="F3" t="n">
+        <v>183.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18.622612745427475</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.8622612745427474</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.274404191517434</v>
+      </c>
+      <c r="D4" t="n">
+        <v>661.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.99522156983069</v>
+      </c>
+      <c r="F4" t="n">
+        <v>189.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18.622612745383183</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.8622612745383182</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.274404191471593</v>
+      </c>
+      <c r="D5" t="n">
+        <v>486.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>47.65022156983017</v>
+      </c>
+      <c r="F5" t="n">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18.62261274542143</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.8622612745421432</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.27440419151118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.33522156983027</v>
+      </c>
+      <c r="F6" t="n">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18.622612745399838</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.8622612745399838</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.27440419148883</v>
+      </c>
+      <c r="D7" t="n">
+        <v>612.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>53.65522156983356</v>
+      </c>
+      <c r="F7" t="n">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18.622612745429826</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.8622612745429827</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.27440419151987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>55.66522156983464</v>
+      </c>
+      <c r="F8" t="n">
+        <v>187.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18.62261274544545</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.862261274544545</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.27440419153604</v>
+      </c>
+      <c r="D9" t="n">
         <v>710.5</v>
       </c>
-      <c r="E2" s="2">
-        <v>58.315221569836957</v>
-      </c>
-      <c r="F2" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="2"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E9" t="n">
+        <v>58.34022156983211</v>
+      </c>
+      <c r="F9" t="n">
+        <v>203.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18.622612745436697</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.8622612745436697</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.27440419152698</v>
+      </c>
+      <c r="D11" t="n">
+        <v>696.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.66022156982617</v>
+      </c>
+      <c r="F11" t="n">
+        <v>199.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -435,18 +588,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -470,32 +623,204 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>18.577079770486954</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.8577079770486953</v>
-      </c>
-      <c r="C2" s="2">
-        <v>19.227277562453995</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="2" t="n">
+        <v>18.577079770459115</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1.8577079770459115</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>19.227277562425183</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>47.60976772629747</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="n">
+        <v>18.577079770482317</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1.8577079770482317</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.227277562449196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50.75976772629938</v>
+      </c>
+      <c r="F3" t="n">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18.57707977049659</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.857707977049659</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.227277562463968</v>
+      </c>
+      <c r="D4" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>53.27476772629636</v>
+      </c>
+      <c r="F4" t="n">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18.577079770476864</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.8577079770476863</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.227277562443554</v>
+      </c>
+      <c r="D5" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>46.92976772629866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>147.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18.577079770461516</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.8577079770461515</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.227277562427666</v>
+      </c>
+      <c r="D6" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47.75976772629756</v>
+      </c>
+      <c r="F6" t="n">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18.57707977051602</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.8577079770516018</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.22727756248408</v>
+      </c>
+      <c r="D7" t="n">
+        <v>689.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>55.26476772630211</v>
+      </c>
+      <c r="F7" t="n">
+        <v>197.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18.577079770497043</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.8577079770497043</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.227277562464437</v>
+      </c>
+      <c r="D8" t="n">
         <v>633.5</v>
       </c>
-      <c r="E2" s="2">
-        <v>52.589767726300487</v>
-      </c>
-      <c r="F2" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="2"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E8" t="n">
+        <v>52.58976772630049</v>
+      </c>
+      <c r="F8" t="n">
+        <v>181.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18.57707977048577</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.8577079770485772</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.227277562452773</v>
+      </c>
+      <c r="D9" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.61476772629869</v>
+      </c>
+      <c r="F9" t="n">
+        <v>163.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18.577079770521117</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.8577079770521117</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.227277562489355</v>
+      </c>
+      <c r="D10" t="n">
+        <v>717.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56.58976772630292</v>
+      </c>
+      <c r="F10" t="n">
+        <v>205.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18.5770797704932</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.85770797704932</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.22727756246046</v>
+      </c>
+      <c r="D11" t="n">
+        <v>609.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>51.429767726302465</v>
+      </c>
+      <c r="F11" t="n">
+        <v>174.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Прект Anylogic/Data.xlsx
+++ b/Прект Anylogic/Data.xlsx
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A2:G7"/>
+      <selection activeCell="G8" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,182 +399,302 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="n">
-        <v>18.6226127454281</v>
+        <v>18.62261274539667</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.86226127454281</v>
+        <v>2.022163156392477</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>19.274404191518084</v>
+        <v>20.92938866866214</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>654.5</v>
+        <v>549.5</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>55.655221569835405</v>
+        <v>50.66522156983026</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>187.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>18.62261274543911</v>
+        <v>18.622612745436964</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.8622612745439109</v>
+        <v>2.256327590045608</v>
       </c>
       <c r="C3" t="n">
-        <v>19.274404191529477</v>
+        <v>23.352990556972042</v>
       </c>
       <c r="D3" t="n">
-        <v>640.5</v>
+        <v>703.5</v>
       </c>
       <c r="E3" t="n">
-        <v>55.00522156983481</v>
+        <v>58.01022156982627</v>
       </c>
       <c r="F3" t="n">
-        <v>183.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>201.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>18.622612745427475</v>
+        <v>18.62261274542226</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8622612745427474</v>
+        <v>2.1919557927456332</v>
       </c>
       <c r="C4" t="n">
-        <v>19.274404191517434</v>
+        <v>22.686742454917304</v>
       </c>
       <c r="D4" t="n">
-        <v>661.5</v>
+        <v>696.5</v>
       </c>
       <c r="E4" t="n">
-        <v>55.99522156983069</v>
+        <v>57.65522156983726</v>
       </c>
       <c r="F4" t="n">
-        <v>189.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>199.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>18.622612745383183</v>
+        <v>18.622612745405405</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8622612745383182</v>
+        <v>2.1400599598631427</v>
       </c>
       <c r="C5" t="n">
-        <v>19.274404191471593</v>
+        <v>22.149620584583527</v>
       </c>
       <c r="D5" t="n">
-        <v>486.5</v>
+        <v>588.0</v>
       </c>
       <c r="E5" t="n">
-        <v>47.65022156983017</v>
+        <v>52.485221569828546</v>
       </c>
       <c r="F5" t="n">
-        <v>139.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
-        <v>18.62261274542143</v>
+        <v>18.622612745436264</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8622612745421432</v>
+        <v>2.2939141034600166</v>
       </c>
       <c r="C6" t="n">
-        <v>19.27440419151118</v>
+        <v>23.74201097081117</v>
       </c>
       <c r="D6" t="n">
-        <v>647.5</v>
+        <v>714.0</v>
       </c>
       <c r="E6" t="n">
-        <v>55.33522156983027</v>
+        <v>58.480221569832196</v>
       </c>
       <c r="F6" t="n">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>204.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="n">
-        <v>18.622612745399838</v>
+        <v>18.622612745424416</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8622612745399838</v>
+        <v>2.186905944430565</v>
       </c>
       <c r="C7" t="n">
-        <v>19.27440419148883</v>
+        <v>22.63447652485635</v>
       </c>
       <c r="D7" t="n">
-        <v>612.5</v>
+        <v>630.0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.65522156983356</v>
+        <v>54.50022156983848</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="n">
-        <v>18.622612745429826</v>
+        <v>18.62261274540277</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8622612745429827</v>
+        <v>2.0738072434186066</v>
       </c>
       <c r="C8" t="n">
-        <v>19.27440419151987</v>
+        <v>21.463904969382575</v>
       </c>
       <c r="D8" t="n">
-        <v>654.5</v>
+        <v>605.5</v>
       </c>
       <c r="E8" t="n">
-        <v>55.66522156983464</v>
+        <v>53.33522156982906</v>
       </c>
       <c r="F8" t="n">
-        <v>187.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>173.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="n">
-        <v>18.62261274544545</v>
+        <v>18.622612745452752</v>
       </c>
       <c r="B9" t="n">
-        <v>1.862261274544545</v>
+        <v>2.21919821367508</v>
       </c>
       <c r="C9" t="n">
-        <v>19.27440419153604</v>
+        <v>22.968701511537077</v>
       </c>
       <c r="D9" t="n">
-        <v>710.5</v>
+        <v>682.5</v>
       </c>
       <c r="E9" t="n">
-        <v>58.34022156983211</v>
+        <v>56.99022156983129</v>
       </c>
       <c r="F9" t="n">
-        <v>203.0</v>
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="n">
+        <v>18.62261274542151</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.1756854965464516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.518344889255772</v>
+      </c>
+      <c r="D10" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.485221569831566</v>
+      </c>
+      <c r="F10" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.622612745436697</v>
+        <v>18.622612745435333</v>
       </c>
       <c r="B11" t="n">
-        <v>1.8622612745436697</v>
+        <v>2.208844904872744</v>
       </c>
       <c r="C11" t="n">
-        <v>19.27440419152698</v>
+        <v>22.8615447654329</v>
       </c>
       <c r="D11" t="n">
-        <v>696.5</v>
+        <v>682.5</v>
       </c>
       <c r="E11" t="n">
-        <v>57.66022156982617</v>
+        <v>57.000221569841514</v>
       </c>
       <c r="F11" t="n">
-        <v>199.0</v>
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18.622612745425414</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.1125208678623904</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.864590982375738</v>
+      </c>
+      <c r="D12" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54.480221569829766</v>
+      </c>
+      <c r="F12" t="n">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18.622612745438314</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.155191295056637</v>
+      </c>
+      <c r="C13" t="n">
+        <v>22.306229903836194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>738.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59.650221569844724</v>
+      </c>
+      <c r="F13" t="n">
+        <v>211.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18.622612745433237</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.114103506301641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.880971290221986</v>
+      </c>
+      <c r="D14" t="n">
+        <v>675.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>56.65022156984109</v>
+      </c>
+      <c r="F14" t="n">
+        <v>193.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18.622612745415285</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.1619558634828304</v>
+      </c>
+      <c r="C15" t="n">
+        <v>22.376243187047294</v>
+      </c>
+      <c r="D15" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.50022156984212</v>
+      </c>
+      <c r="F15" t="n">
+        <v>198.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18.622612745427006</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.067768824912654</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.401407337845967</v>
+      </c>
+      <c r="D16" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>55.65022156983988</v>
+      </c>
+      <c r="F16" t="n">
+        <v>187.0</v>
       </c>
     </row>
   </sheetData>
@@ -585,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A2:G5"/>
+      <selection activeCell="G13" sqref="A2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,204 +743,84 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="n">
-        <v>18.577079770459115</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1.8577079770459115</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>19.227277562425183</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>528.5</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>47.60976772629747</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>151.0</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="n">
-        <v>18.577079770482317</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1.8577079770482317</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.227277562449196</v>
-      </c>
-      <c r="D3" t="n">
-        <v>595.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50.75976772629938</v>
-      </c>
-      <c r="F3" t="n">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>18.57707977049659</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.857707977049659</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19.227277562463968</v>
-      </c>
-      <c r="D4" t="n">
-        <v>647.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>53.27476772629636</v>
-      </c>
-      <c r="F4" t="n">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>18.577079770476864</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.8577079770476863</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.227277562443554</v>
-      </c>
-      <c r="D5" t="n">
-        <v>514.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>46.92976772629866</v>
-      </c>
-      <c r="F5" t="n">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>18.577079770461516</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.8577079770461515</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19.227277562427666</v>
-      </c>
-      <c r="D6" t="n">
-        <v>532.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47.75976772629756</v>
-      </c>
-      <c r="F6" t="n">
-        <v>152.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>18.57707977051602</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.8577079770516018</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19.22727756248408</v>
-      </c>
-      <c r="D7" t="n">
-        <v>689.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>55.26476772630211</v>
-      </c>
-      <c r="F7" t="n">
-        <v>197.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>18.577079770497043</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.8577079770497043</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.227277562464437</v>
-      </c>
-      <c r="D8" t="n">
-        <v>633.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>52.58976772630049</v>
-      </c>
-      <c r="F8" t="n">
-        <v>181.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>18.57707977048577</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.8577079770485772</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19.227277562452773</v>
-      </c>
-      <c r="D9" t="n">
-        <v>570.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49.61476772629869</v>
-      </c>
-      <c r="F9" t="n">
-        <v>163.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18.577079770521117</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.8577079770521117</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19.227277562489355</v>
-      </c>
-      <c r="D10" t="n">
-        <v>717.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>56.58976772630292</v>
-      </c>
-      <c r="F10" t="n">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>18.5770797704932</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.85770797704932</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19.22727756246046</v>
-      </c>
-      <c r="D11" t="n">
-        <v>609.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>51.429767726302465</v>
-      </c>
-      <c r="F11" t="n">
-        <v>174.0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3" s="2"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Прект Anylogic/Data.xlsx
+++ b/Прект Anylogic/Data.xlsx
@@ -743,84 +743,304 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="2" t="n">
+        <v>18.57707977050875</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2.158044928644583</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>22.33576501147143</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>51.764767726299986</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>176.0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="2"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="A3" t="n">
+        <v>18.57707977050661</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2.112286116151154</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.862161302164445</v>
+      </c>
+      <c r="D3" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.43476772630371</v>
+      </c>
+      <c r="F3" t="n">
+        <v>186.0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="A4" t="n">
+        <v>18.577079770493626</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.221008890983352</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.98744202167769</v>
+      </c>
+      <c r="D4" t="n">
+        <v>588.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50.41476772629917</v>
+      </c>
+      <c r="F4" t="n">
+        <v>168.0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="A5" t="n">
+        <v>18.577079770471396</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.1938612373864097</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.70646380694934</v>
+      </c>
+      <c r="D5" t="n">
+        <v>633.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52.60476772630805</v>
+      </c>
+      <c r="F5" t="n">
+        <v>181.0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="A6" t="n">
+        <v>18.57707977051389</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.1776126189748752</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.538290606389957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>703.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.93476772630574</v>
+      </c>
+      <c r="F6" t="n">
+        <v>201.0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="A7" t="n">
+        <v>18.577079770479777</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.1532564266049183</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.286204015360905</v>
+      </c>
+      <c r="D7" t="n">
+        <v>549.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.594767726298066</v>
+      </c>
+      <c r="F7" t="n">
+        <v>157.0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="A8" t="n">
+        <v>18.577079770481813</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.3220673851768376</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.03339743658027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>51.759767726299984</v>
+      </c>
+      <c r="F8" t="n">
+        <v>176.0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="A9" t="n">
+        <v>18.577079770495526</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.1859277065854372</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.624351763159275</v>
+      </c>
+      <c r="D9" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>53.25976772630089</v>
+      </c>
+      <c r="F9" t="n">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="A10" t="n">
+        <v>18.57707977049523</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.1378049094447853</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.126280812753528</v>
+      </c>
+      <c r="D10" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>52.77476772629624</v>
+      </c>
+      <c r="F10" t="n">
+        <v>182.0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="A11" t="n">
+        <v>18.577079770490368</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.114703495463923</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.887181178051605</v>
+      </c>
+      <c r="D11" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.77476772629624</v>
+      </c>
+      <c r="F11" t="n">
+        <v>182.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18.577079770480093</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.2092200804780355</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22.865427832947667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>556.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48.92476772629526</v>
+      </c>
+      <c r="F12" t="n">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18.577079770482037</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.2303143057381183</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.083753064389523</v>
+      </c>
+      <c r="D13" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50.59476772629928</v>
+      </c>
+      <c r="F13" t="n">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18.577079770477912</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.0948467506627133</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.68166386935908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>588.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50.424767726295634</v>
+      </c>
+      <c r="F14" t="n">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18.577079770485955</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.2939408076292773</v>
+      </c>
+      <c r="C15" t="n">
+        <v>23.74228735896302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>51.099767726299575</v>
+      </c>
+      <c r="F15" t="n">
+        <v>172.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18.577079770486346</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.1136078232378606</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.875840970511856</v>
+      </c>
+      <c r="D16" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52.75976772630059</v>
+      </c>
+      <c r="F16" t="n">
+        <v>182.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
